--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177666</v>
+        <v>3940022.790763699</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177666</v>
+        <v>3940022.790763699</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.63502043</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V5" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738476</v>
       </c>
       <c r="W5" t="n">
         <v>638.3734759809475</v>
@@ -1153,10 +1153,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190048</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H20" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201078</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2517,34 +2517,34 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F26" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
         <v>397.8840054528454</v>
@@ -2623,7 +2623,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W26" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879713</v>
       </c>
       <c r="X26" t="n">
         <v>592.2818334606677</v>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.999312955469</v>
+        <v>480.6109686639513</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428884</v>
+        <v>449.4745782428811</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397443</v>
+        <v>410.339155739737</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067631</v>
+        <v>404.3632896067559</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287079064</v>
+        <v>404.8896287078991</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054527399</v>
+        <v>397.8840054527326</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129697</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.008821068549</v>
+        <v>361.0088210685417</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118755</v>
+        <v>560.9649184118682</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017715</v>
+        <v>648.7514272017643</v>
       </c>
       <c r="V29" t="n">
-        <v>628.462679875218</v>
+        <v>629.8510241667111</v>
       </c>
       <c r="W29" t="n">
-        <v>638.373475980842</v>
+        <v>638.3734759808348</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605622</v>
+        <v>592.2818334605549</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326827009</v>
+        <v>511.3174326826936</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151015844</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F32" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3459,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
         <v>410.3391557398498</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200989</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4079,10 +4079,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H45" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4173,13 +4173,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4336,52 +4336,52 @@
         <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3509.801978263786</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3991.981177777289</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4557.024241649961</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6135.954275048307</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4573,52 +4573,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>2018.47013910948</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L5" t="n">
-        <v>2936.062862426063</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M5" t="n">
-        <v>3418.242061939566</v>
+        <v>3670.420662750073</v>
       </c>
       <c r="N5" t="n">
-        <v>3983.285125812238</v>
+        <v>4235.463726622745</v>
       </c>
       <c r="O5" t="n">
-        <v>4893.440008752982</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4810,52 +4810,52 @@
         <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>3165.193901093872</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>3730.236964966544</v>
+        <v>4235.463726622745</v>
       </c>
       <c r="O8" t="n">
-        <v>4640.391847907288</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P8" t="n">
-        <v>5981.4859376609</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="9">
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>438.4639669707671</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5047,37 +5047,37 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M11" t="n">
-        <v>3240.782198133642</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
         <v>5462.811290515621</v>
@@ -5208,34 +5208,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U13" t="n">
         <v>140.96</v>
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5293,43 +5293,43 @@
         <v>2758.60299862014</v>
       </c>
       <c r="M14" t="n">
-        <v>3418.242061939566</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N14" t="n">
-        <v>3983.285125812238</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O14" t="n">
-        <v>4893.440008752982</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5445,34 +5445,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5524,49 +5524,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M17" t="n">
-        <v>3864.448844008177</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N17" t="n">
-        <v>4429.491907880849</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O17" t="n">
-        <v>5339.646790821593</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P17" t="n">
-        <v>6175.514118919006</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5682,34 +5682,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>275.6639043471516</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754419</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="O19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="P19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,49 +5761,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1436.423622860731</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2354.016346177314</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>2836.195545690816</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>3401.238609563488</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P20" t="n">
-        <v>5987.71793717156</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5919,7 +5919,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
@@ -5931,19 +5931,19 @@
         <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546139</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048165</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351347</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071682</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342962</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233412</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>3392.721067928238</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>3874.900267441741</v>
       </c>
       <c r="N23" t="n">
-        <v>3805.825262006314</v>
+        <v>4439.943331314413</v>
       </c>
       <c r="O23" t="n">
-        <v>4715.980144947059</v>
+        <v>5350.098214255157</v>
       </c>
       <c r="P23" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.00000000001</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183187</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464015</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542927</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818862</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908814</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665715</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430558</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="24">
@@ -6156,40 +6156,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6208,16 +6208,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
         <v>894.2358041069906</v>
@@ -6232,52 +6232,52 @@
         <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K26" t="n">
-        <v>2049.12665539136</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L26" t="n">
-        <v>3793.50665539136</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M26" t="n">
-        <v>4275.685854904863</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N26" t="n">
-        <v>4840.728918777535</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O26" t="n">
-        <v>5750.883801718279</v>
+        <v>4640.391847907288</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>6338.131329352084</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6393,22 +6393,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
         <v>140.96</v>
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518193</v>
+        <v>2580.161715518263</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020326</v>
+        <v>2126.146990020404</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994323615</v>
+        <v>1711.6629943237</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044057</v>
+        <v>1303.215227044148</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041067773</v>
+        <v>894.2358041068767</v>
       </c>
       <c r="G29" t="n">
-        <v>492.332768295929</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>3042.307675747712</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N29" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100365</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.179490197778</v>
+        <v>5884.482603843663</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183284</v>
+        <v>6683.344625183293</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464217</v>
+        <v>6116.713394464234</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543236</v>
+        <v>5461.40892254326</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134790491</v>
+        <v>4825.195766819309</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441880549</v>
+        <v>4180.374073909375</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637557</v>
+        <v>3582.10959566639</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402506</v>
+        <v>3065.627340431346</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150262</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213288</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374526</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117385</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215519</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182257</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368745</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249924</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373117</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,31 +6630,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
         <v>140.96</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6706,52 +6706,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L32" t="n">
-        <v>2631.383042915614</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6867,37 +6867,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6946,28 +6946,28 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>1929.233537634605</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399844</v>
+        <v>2846.826260951188</v>
       </c>
       <c r="M35" t="n">
-        <v>3864.448844008177</v>
+        <v>3329.005460464691</v>
       </c>
       <c r="N35" t="n">
-        <v>4429.491907880849</v>
+        <v>3894.048524337363</v>
       </c>
       <c r="O35" t="n">
-        <v>5339.646790821593</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P35" t="n">
-        <v>6175.514118919006</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>6684.746993155883</v>
@@ -7104,37 +7104,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
         <v>140.96</v>
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342872</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>2936.062862426065</v>
       </c>
       <c r="M38" t="n">
-        <v>2814.780508913348</v>
+        <v>3418.242061939568</v>
       </c>
       <c r="N38" t="n">
-        <v>3379.82357278602</v>
+        <v>3983.28512581224</v>
       </c>
       <c r="O38" t="n">
-        <v>4893.440008752982</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P38" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="39">
@@ -7341,40 +7341,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342872</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
@@ -7420,49 +7420,49 @@
         <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>2475.128344611655</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L41" t="n">
-        <v>3392.721067928238</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>4640.391847907288</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6338.131329352084</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7578,40 +7578,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342872</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2153.765102156982</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7727,7 +7727,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H45" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
         <v>140.96</v>
@@ -7815,16 +7815,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>140.96</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O46" t="n">
         <v>140.96</v>
@@ -7984,28 +7984,28 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
-        <v>172.9791916632892</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>341.7591690772425</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8221,16 +8221,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>609.557124268908</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>433.9782470873031</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>176.4768357656695</v>
@@ -8458,7 +8458,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>940.6347988651464</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>510.3300622789882</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8695,10 +8695,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>383.4716344542458</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>315.9139665186111</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8716,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,19 +8941,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>179.2523876827512</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>433.9782470873031</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9172,28 +9172,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>763.2599394199344</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>21.6313502802717</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>609.5571242689075</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>433.9782470873006</v>
+        <v>291.2427374567742</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656797</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,13 +9898,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.473091295035942</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5399223057502</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,34 +10114,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>763.2599394199325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>595.7709581728425</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>301.799730824009</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>315.9139665186129</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10594,28 +10594,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>519.4191429811553</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>419.8640113926992</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>685.9089394605967</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>609.5571242689077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -11068,13 +11068,13 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2427374567726</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5399223057502</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,13 +11299,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>392.2657817102986</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>383.4716344542452</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23475,10 +23475,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23712,10 +23712,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>17.45782105274509</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23952,7 +23952,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>199.1703102162162</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>173.0584437526686</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292967417</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>2.808139187274691</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24636,13 +24636,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
@@ -24651,7 +24651,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q28" t="n">
-        <v>505.228266425598</v>
+        <v>340.0154778821716</v>
       </c>
       <c r="R28" t="n">
         <v>608.1413738827905</v>
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.388344291623184</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.388344291500403</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957366537</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
         <v>107.6476277959926</v>
@@ -24882,7 +24882,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
-        <v>134.7013545130397</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P31" t="n">
         <v>368.8061924102448</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O37" t="n">
         <v>268.0582198167198</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25584,16 +25584,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25645,13 +25645,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25821,16 +25821,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25967,10 +25967,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I45" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26061,13 +26061,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>34.66406242702104</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636737</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971101</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877989</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066945</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769176</v>
+        <v>7353889.199056747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.220046548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531926</v>
+        <v>11978865.28301606</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722614</v>
+        <v>13135109.30400586</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913303</v>
+        <v>14291353.32499567</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103992</v>
+        <v>15447597.34598549</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294683</v>
+        <v>16603841.36697531</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485374</v>
+        <v>17760085.38796513</v>
       </c>
     </row>
   </sheetData>
@@ -26325,43 +26325,43 @@
         <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411311</v>
       </c>
       <c r="E2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="F2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="G2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>817831.1367976686</v>
-      </c>
-      <c r="G2" t="n">
-        <v>817831.1367976686</v>
       </c>
       <c r="H2" t="n">
         <v>817831.1367976686</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.1367976693</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.136797669</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.13679776</v>
+        <v>817831.1367977469</v>
       </c>
       <c r="L2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="N2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817831.1367976691</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976686</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817831.1367976684</v>
-      </c>
-      <c r="N2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="O2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163521</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715407</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722105</v>
+        <v>88471.49209722097</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
+        <v>13783.46259850303</v>
+      </c>
+      <c r="H4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="H4" t="n">
-        <v>13783.46259850301</v>
-      </c>
       <c r="I4" t="n">
-        <v>13783.46259850305</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259857288</v>
+        <v>13783.4625985625</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
         <v>13783.46259850302</v>
@@ -26533,43 +26533,43 @@
         <v>651667.5014739775</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439105</v>
+        <v>651969.8621439101</v>
       </c>
       <c r="E6" t="n">
+        <v>665068.274199166</v>
+      </c>
+      <c r="F6" t="n">
+        <v>665068.274199166</v>
+      </c>
+      <c r="G6" t="n">
         <v>665068.2741991658</v>
-      </c>
-      <c r="F6" t="n">
-        <v>665068.2741991656</v>
-      </c>
-      <c r="G6" t="n">
-        <v>665068.2741991656</v>
       </c>
       <c r="H6" t="n">
         <v>665068.2741991656</v>
       </c>
       <c r="I6" t="n">
-        <v>665068.2741991663</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="J6" t="n">
-        <v>44844.27419916552</v>
+        <v>44844.27419916587</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991872</v>
+        <v>665068.2741991844</v>
       </c>
       <c r="L6" t="n">
+        <v>665068.2741991661</v>
+      </c>
+      <c r="M6" t="n">
+        <v>665068.2741991659</v>
+      </c>
+      <c r="N6" t="n">
+        <v>665068.2741991659</v>
+      </c>
+      <c r="O6" t="n">
+        <v>665068.2741991661</v>
+      </c>
+      <c r="P6" t="n">
         <v>665068.2741991656</v>
-      </c>
-      <c r="M6" t="n">
-        <v>665068.2741991654</v>
-      </c>
-      <c r="N6" t="n">
-        <v>665068.2741991658</v>
-      </c>
-      <c r="O6" t="n">
-        <v>665068.2741991658</v>
-      </c>
-      <c r="P6" t="n">
-        <v>665068.2741991655</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27702,10 +27702,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>319.1859637116847</v>
+        <v>187.2441835284045</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
         <v>368.8061924102448</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27805,7 +27805,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27936,16 +27936,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6476277959926</v>
+        <v>126.870883593696</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>388.0294482079482</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,10 +29744,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -34828,28 +34828,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
-        <v>1092.327558270101</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>803.1940274633249</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34998,10 +34998,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>151.1650359809836</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35065,16 +35065,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1356.671410701069</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>921.0279435655888</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35083,10 +35083,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35232,16 +35232,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35302,10 +35302,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
         <v>926.8613366834174</v>
@@ -35314,13 +35314,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1511.385368433502</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1354.640494700618</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35539,19 +35539,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1130.585920886406</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>886.6645360869669</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35560,10 +35560,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35785,19 +35785,19 @@
         <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
-        <v>666.3020841610368</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1353.326613694115</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36016,28 +36016,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1682.608306026747</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>763.2345892100915</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36253,10 +36253,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>768.7456367124325</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36265,13 +36265,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P20" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1070.99198265499</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,13 +36484,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1278.288679508931</v>
+        <v>1135.553169878404</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>1.010549668636587e-11</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36724,13 +36724,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L26" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36742,13 +36742,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>848.7835237166661</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>598.9747806918326</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>1250.309635898218</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1057.205816558925</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,10 +37040,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717436</v>
+        <v>422.1086156716381</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012742</v>
+        <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
         <v>956.4197244052909</v>
@@ -37198,19 +37198,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1228.661067507426</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>886.6645360869687</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37219,7 +37219,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37438,28 +37438,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>1266.533429413316</v>
       </c>
       <c r="L35" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P35" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>881.2988697787815</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1612.770276144014</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,7 +37687,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>1528.90549087572</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
         <v>1714.888365095753</v>
@@ -37912,13 +37912,13 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>778.2924339350583</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>598.9747806918326</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,13 +38143,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1139.38006814246</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
         <v>926.861336683417</v>
@@ -38158,7 +38158,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38167,10 +38167,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>844.9064928403275</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
